--- a/jpcore-r4/feature/observation-labresult-example-modify/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/observation-labresult-example-modify/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-07T12:04:17+00:00</t>
+    <t>2024-01-12T12:49:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
